--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-210-website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62C2488-279E-4642-BE39-43955FD769B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A68937-5D02-D144-B9D9-59776F585275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{3D32A6EA-FFB9-A945-A00D-80F3A1F0AAB1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>week</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Classes, interfaces, trees and tree traversals, SAT problem</t>
   </si>
   <si>
-    <t>Review on Wednesday, Midterm on Friday</t>
-  </si>
-  <si>
     <t>heuristics, graph representation, graph interface, graph traversal</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>GUI Output</t>
   </si>
   <si>
-    <t>Monday Review, Wednesday Midterm 2</t>
-  </si>
-  <si>
     <t>GUI Input, Event-driven programming, and MVC</t>
   </si>
   <si>
@@ -153,6 +147,9 @@
   </si>
   <si>
     <t>Thanksgiving recess November 28-December 1, 2024</t>
+  </si>
+  <si>
+    <t>Midterm on Wednesday</t>
   </si>
 </sst>
 </file>
@@ -530,7 +527,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -550,7 +547,7 @@
         <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -564,7 +561,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -608,7 +605,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -619,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -630,7 +627,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -641,7 +638,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -652,7 +649,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -663,7 +660,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -674,7 +671,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -685,10 +682,10 @@
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -699,7 +696,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -710,10 +707,10 @@
         <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -724,7 +721,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -735,7 +732,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-210-website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A68937-5D02-D144-B9D9-59776F585275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF656229-01A5-3246-BF29-A781D1DA3E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{3D32A6EA-FFB9-A945-A00D-80F3A1F0AAB1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>week</t>
   </si>
@@ -44,12 +44,6 @@
     <t>dates</t>
   </si>
   <si>
-    <t>Aug 26 - Aug 30</t>
-  </si>
-  <si>
-    <t>Sep 04 - Sep 09</t>
-  </si>
-  <si>
     <t>Sep 11 - Sep 16</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
     <t>Course learning objectives and Java as a second programming language</t>
   </si>
   <si>
-    <t>Java collections: arrays, lists, sets, and hashmaps</t>
-  </si>
-  <si>
     <t>Algorithm patterns: exhaustive search and recursive backtracking</t>
   </si>
   <si>
@@ -134,9 +125,6 @@
     <t>Java vs. Python reprise and review for final exam</t>
   </si>
   <si>
-    <t>Top-rated PA10 submission demos</t>
-  </si>
-  <si>
     <t>holiday</t>
   </si>
   <si>
@@ -150,6 +138,15 @@
   </si>
   <si>
     <t>Midterm on Wednesday</t>
+  </si>
+  <si>
+    <t>Aug 26 - Sept 09</t>
+  </si>
+  <si>
+    <t>1 and 2</t>
+  </si>
+  <si>
+    <t>Java collections: arrays, lists, sets, and hashmaps and Algorithm patters: Sliding Window</t>
   </si>
 </sst>
 </file>
@@ -185,11 +182,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,7 +525,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -544,196 +542,188 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
       <c r="C16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-210-website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF656229-01A5-3246-BF29-A781D1DA3E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F855F6-A110-5745-AA42-5820B257BB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{3D32A6EA-FFB9-A945-A00D-80F3A1F0AAB1}"/>
   </bookViews>
@@ -525,7 +525,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -671,6 +671,9 @@
       <c r="C12" t="s">
         <v>33</v>
       </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -682,9 +685,6 @@
       <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -696,6 +696,9 @@
       <c r="C14" t="s">
         <v>26</v>
       </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -706,9 +709,6 @@
       </c>
       <c r="C15" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-210-website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F855F6-A110-5745-AA42-5820B257BB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C797D896-9FBC-634C-8948-D902467176CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{3D32A6EA-FFB9-A945-A00D-80F3A1F0AAB1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>week</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>Aug 26 - Sept 09</t>
-  </si>
-  <si>
-    <t>1 and 2</t>
   </si>
   <si>
     <t>Java collections: arrays, lists, sets, and hashmaps and Algorithm patters: Sliding Window</t>
@@ -182,12 +179,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,17 +523,18 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -549,8 +548,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>35</v>
+      <c r="A2" s="3">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
@@ -563,18 +562,18 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>4</v>
       </c>
       <c r="B4" t="s">
@@ -585,7 +584,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>5</v>
       </c>
       <c r="B5" t="s">
@@ -596,7 +595,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>6</v>
       </c>
       <c r="B6" t="s">
@@ -607,7 +606,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>7</v>
       </c>
       <c r="B7" t="s">
@@ -618,7 +617,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>8</v>
       </c>
       <c r="B8" t="s">
@@ -629,7 +628,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>9</v>
       </c>
       <c r="B9" t="s">
@@ -640,7 +639,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>10</v>
       </c>
       <c r="B10" t="s">
@@ -651,7 +650,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>11</v>
       </c>
       <c r="B11" t="s">
@@ -662,7 +661,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>12</v>
       </c>
       <c r="B12" t="s">
@@ -676,7 +675,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>13</v>
       </c>
       <c r="B13" t="s">
@@ -687,7 +686,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="3">
         <v>14</v>
       </c>
       <c r="B14" t="s">
@@ -701,7 +700,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="3">
         <v>15</v>
       </c>
       <c r="B15" t="s">
@@ -712,7 +711,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="3">
         <v>16</v>
       </c>
       <c r="B16" t="s">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-210-website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C797D896-9FBC-634C-8948-D902467176CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517C6318-AD56-194C-A445-F97B3B6103A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{3D32A6EA-FFB9-A945-A00D-80F3A1F0AAB1}"/>
   </bookViews>
@@ -44,15 +44,6 @@
     <t>dates</t>
   </si>
   <si>
-    <t>Sep 11 - Sep 16</t>
-  </si>
-  <si>
-    <t>Sep 18 - Sep 23</t>
-  </si>
-  <si>
-    <t>Sep 25 - Sep 27</t>
-  </si>
-  <si>
     <t>Sep 30 - Oct 04</t>
   </si>
   <si>
@@ -140,10 +131,19 @@
     <t>Midterm on Wednesday</t>
   </si>
   <si>
-    <t>Aug 26 - Sept 09</t>
-  </si>
-  <si>
     <t>Java collections: arrays, lists, sets, and hashmaps and Algorithm patters: Sliding Window</t>
+  </si>
+  <si>
+    <t>Aug 26 - Sept 06</t>
+  </si>
+  <si>
+    <t>Sep 09 - Sep 13</t>
+  </si>
+  <si>
+    <t>Sep 16 - Sep 20</t>
+  </si>
+  <si>
+    <t>Sep 23 - Sep 27</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,10 +541,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -552,13 +552,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -566,10 +566,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -577,10 +577,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -588,10 +588,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -599,10 +599,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -610,10 +610,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -621,10 +621,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -632,10 +632,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -643,10 +643,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -654,10 +654,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -665,13 +665,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -679,10 +679,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -690,13 +690,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -704,10 +704,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -715,10 +715,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-210-website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517C6318-AD56-194C-A445-F97B3B6103A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C9FE29-0401-D445-A5CB-4C9EFE2F4B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{3D32A6EA-FFB9-A945-A00D-80F3A1F0AAB1}"/>
   </bookViews>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-210-website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C9FE29-0401-D445-A5CB-4C9EFE2F4B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E05D9C-859B-4D4C-B946-83CE34386FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{3D32A6EA-FFB9-A945-A00D-80F3A1F0AAB1}"/>
   </bookViews>
@@ -131,9 +131,6 @@
     <t>Midterm on Wednesday</t>
   </si>
   <si>
-    <t>Java collections: arrays, lists, sets, and hashmaps and Algorithm patters: Sliding Window</t>
-  </si>
-  <si>
     <t>Aug 26 - Sept 06</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>Sep 23 - Sep 27</t>
+  </si>
+  <si>
+    <t>Java collections: arrays, lists, sets, and hashmaps and Algorithm patterns: Sliding Window</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -566,10 +566,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -577,7 +577,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -588,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-210-website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E05D9C-859B-4D4C-B946-83CE34386FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F54BFFE-D447-124D-9ADE-937EB78367B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{3D32A6EA-FFB9-A945-A00D-80F3A1F0AAB1}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -583,26 +583,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>30</v>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -649,26 +649,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>30</v>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-210-website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F54BFFE-D447-124D-9ADE-937EB78367B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08930DCB-EFCE-7642-8795-094566CFE5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{3D32A6EA-FFB9-A945-A00D-80F3A1F0AAB1}"/>
   </bookViews>
@@ -89,18 +89,12 @@
     <t>Classes, interfaces, trees and tree traversals, SAT problem</t>
   </si>
   <si>
-    <t>heuristics, graph representation, graph interface, graph traversal</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Inheritance, class hierarchies, debugging, using data to encode</t>
   </si>
   <si>
     <t xml:space="preserve"> Interfaces, Object base class, enumerated types</t>
   </si>
   <si>
-    <t>Hashmap implementation, composing data structures, generics</t>
-  </si>
-  <si>
     <t>GUI Output</t>
   </si>
   <si>
@@ -144,6 +138,12 @@
   </si>
   <si>
     <t>Java collections: arrays, lists, sets, and hashmaps and Algorithm patterns: Sliding Window</t>
+  </si>
+  <si>
+    <t>Composing data structures, generics</t>
+  </si>
+  <si>
+    <t>GUI principles</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -544,7 +544,7 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -552,13 +552,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -566,10 +566,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -577,7 +577,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -588,10 +588,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -605,48 +605,48 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
-        <v>20</v>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -657,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -668,10 +668,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -682,7 +682,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -693,10 +693,10 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -707,7 +707,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -718,7 +718,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-210-website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08930DCB-EFCE-7642-8795-094566CFE5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC9E333-7FED-D048-8F7F-3C200B6904D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{3D32A6EA-FFB9-A945-A00D-80F3A1F0AAB1}"/>
   </bookViews>
@@ -92,9 +92,6 @@
     <t xml:space="preserve"> Inheritance, class hierarchies, debugging, using data to encode</t>
   </si>
   <si>
-    <t xml:space="preserve"> Interfaces, Object base class, enumerated types</t>
-  </si>
-  <si>
     <t>GUI Output</t>
   </si>
   <si>
@@ -140,10 +137,13 @@
     <t>Java collections: arrays, lists, sets, and hashmaps and Algorithm patterns: Sliding Window</t>
   </si>
   <si>
-    <t>Composing data structures, generics</t>
-  </si>
-  <si>
     <t>GUI principles</t>
+  </si>
+  <si>
+    <t>Object base class, Generics</t>
+  </si>
+  <si>
+    <t>Enumerated types, composing data structures</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -544,7 +544,7 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -552,13 +552,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -566,10 +566,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -577,7 +577,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -588,10 +588,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -624,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -635,7 +635,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -646,7 +646,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -657,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -668,10 +668,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -682,7 +682,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -693,10 +693,10 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -707,7 +707,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -718,7 +718,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-210-website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC9E333-7FED-D048-8F7F-3C200B6904D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6549835B-2BDA-EB46-BBF1-5815BAECBC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{3D32A6EA-FFB9-A945-A00D-80F3A1F0AAB1}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>Nov 08 - Nov 15</t>
   </si>
   <si>
-    <t>Nov 18 - Nov 22:</t>
-  </si>
-  <si>
     <t>Nov 25 - Nov 27</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>Lambda functions</t>
   </si>
   <si>
-    <t>Java vs. Python reprise and review for final exam</t>
-  </si>
-  <si>
     <t>holiday</t>
   </si>
   <si>
@@ -137,13 +131,19 @@
     <t>Java collections: arrays, lists, sets, and hashmaps and Algorithm patterns: Sliding Window</t>
   </si>
   <si>
-    <t>GUI principles</t>
-  </si>
-  <si>
     <t>Object base class, Generics</t>
   </si>
   <si>
     <t>Enumerated types, composing data structures</t>
+  </si>
+  <si>
+    <t>Nov 18 - Nov 22</t>
+  </si>
+  <si>
+    <t>Java vs. Python</t>
+  </si>
+  <si>
+    <t>review for final exam</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,10 +541,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -552,13 +552,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -566,10 +566,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -577,10 +577,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -588,10 +588,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -602,7 +602,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -613,7 +613,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -624,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -635,7 +635,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -646,7 +646,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -657,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -671,43 +671,43 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -715,10 +715,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-210-website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6549835B-2BDA-EB46-BBF1-5815BAECBC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578EE246-8698-B04A-8606-512665C48082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{3D32A6EA-FFB9-A945-A00D-80F3A1F0AAB1}"/>
   </bookViews>
@@ -98,9 +98,6 @@
     <t>Decomposition: top down and bottom up</t>
   </si>
   <si>
-    <t>Lambda functions</t>
-  </si>
-  <si>
     <t>holiday</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>review for final exam</t>
+  </si>
+  <si>
+    <t>Code Smells</t>
   </si>
 </sst>
 </file>
@@ -544,7 +544,7 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -552,13 +552,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -566,10 +566,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -577,7 +577,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -588,10 +588,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -624,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -635,7 +635,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -657,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -671,7 +671,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -679,7 +679,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -693,10 +693,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -707,7 +707,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -718,7 +718,7 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
